--- a/WORD/all.xlsx
+++ b/WORD/all.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\N2_2025_12\WORD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E21DA35D-9062-4EA6-AE2E-A4A2D805FAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A78DC-468C-4075-BDAF-9B975CA678AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9315" yWindow="1095" windowWidth="28365" windowHeight="17745" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.13" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="555">
   <si>
     <t>Fre</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,235 +628,235 @@
   </si>
   <si>
     <t>かくなる上は</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>かくなるうえわ</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>既然如此；事已至此；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ほとんどない</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>几乎没有</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>裁判</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>さいばん</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>审判；打官司</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>謝る</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>あやまる</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>道歉；认错；谢罪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ふるさと</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>故乡；家乡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>やむ</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>止む;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>おなか</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>肚子；腹部</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>さかな</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>魚</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>不论如何；不管怎样；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>にもかかわらず</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>虽然</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>貯金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>にかかわらず</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>おしゃべり</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>闲聊；聊天；多嘴多舌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>储蓄金额</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>足を運ぶ</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>あしをはこぶ</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>前往；去</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>けが</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>受伤；负伤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>チーム</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>团队；小组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>もっと</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>更加；进一步</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>取り扱う</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>とりあつかう</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>经营；操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生まる</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>出生；诞生</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>うまる</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>あきらめる</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>放弃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>心構え</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>心理准备；态度；思想准备</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>こころがまえ</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>苦情</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>くじょう</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>投诉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>限り</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>只要……就……</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>かぎり</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>～に限り</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>仅限于…</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>出合う</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>であう</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>遇见；偶然碰到</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>そろう</t>
@@ -1596,7 +1596,7 @@
   </si>
   <si>
     <t>体力が続く**限り**、この仕事を続けたい。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>およそ</t>
@@ -1880,7 +1880,7 @@
   </si>
   <si>
     <t>ちょきんがく</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>きり</t>
@@ -2296,7 +2296,7 @@
   </si>
   <si>
     <t>に限り：仅限</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -2308,14 +2308,18 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2346,12 +2350,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2450,6 +2448,19 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2473,7 +2484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2489,13 +2500,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2504,23 +2515,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2528,31 +2542,34 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2561,13 +2578,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2836,7 +2850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2863,13 +2877,13 @@
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>552</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>551</v>
       </c>
     </row>
@@ -2888,7 +2902,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E18" ca="1" si="0">RAND()</f>
-        <v>0.60812184797963176</v>
+        <v>0.46394298838073234</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -2906,7 +2920,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8481259228788893E-2</v>
+        <v>0.15571808591652225</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -2924,7 +2938,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3576910929108319</v>
+        <v>0.69865717758072277</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -2942,7 +2956,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30266417694163117</v>
+        <v>0.85072625030256444</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -2960,7 +2974,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41281883974520572</v>
+        <v>0.78452904281745017</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -2976,7 +2990,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68478316989362042</v>
+        <v>0.35925338410401564</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -2992,7 +3006,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14262363639608</v>
+        <v>0.18067680040325107</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>377</v>
@@ -3013,7 +3027,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88923255015458558</v>
+        <v>0.43827554237165789</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>545</v>
@@ -3034,7 +3048,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77879335704939723</v>
+        <v>0.20545361991234734</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3052,7 +3066,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21469470878256069</v>
+        <v>0.84062844799931868</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3070,7 +3084,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18306440190601325</v>
+        <v>0.1542034092452893</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3088,7 +3102,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98508980279293124</v>
+        <v>0.93870857601077784</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3104,7 +3118,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79723167743100221</v>
+        <v>5.7934174287140316E-2</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -3123,7 +3137,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43969206229742464</v>
+        <v>0.69552661781543024</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3141,7 +3155,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40028084553797039</v>
+        <v>0.87630416693557289</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
@@ -3159,7 +3173,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80818324277245901</v>
+        <v>0.8075781072750885</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
@@ -3175,11 +3189,11 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33211365851203223</v>
+        <v>0.43867496431828779</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E18">
+  <autoFilter ref="A1:E18" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
       <sortCondition descending="1" ref="A1:A18"/>
     </sortState>
@@ -3192,7 +3206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3216,13 +3230,13 @@
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>552</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>551</v>
       </c>
     </row>
@@ -3238,7 +3252,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E14" ca="1" si="0">RAND()</f>
-        <v>0.41448692880789251</v>
+        <v>0.12686965452759624</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3256,7 +3270,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65155996741656275</v>
+        <v>2.235621001867627E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3274,7 +3288,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12352727359836091</v>
+        <v>0.12433758750061885</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3292,7 +3306,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16037500483114808</v>
+        <v>0.22562541000498504</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3307,7 +3321,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82478530637228897</v>
+        <v>0.97978169404130422</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3322,7 +3336,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28077665547041619</v>
+        <v>0.9984256502151605</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3340,7 +3354,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52197476645720853</v>
+        <v>0.72211593644211658</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3358,7 +3372,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30332320622910569</v>
+        <v>0.35779716508634551</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3373,7 +3387,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10578256567544853</v>
+        <v>0.48442521396468718</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3388,7 +3402,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37027757145626328</v>
+        <v>0.33301392836566746</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3403,7 +3417,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75646317450339062</v>
+        <v>0.74584150127680482</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3418,7 +3432,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55887072837784091</v>
+        <v>0.36401742854656272</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3433,11 +3447,11 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50379299721541737</v>
+        <v>0.33758190248093811</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E15">
+  <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
       <sortCondition descending="1" ref="A1:A15"/>
     </sortState>
@@ -3450,7 +3464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3476,13 +3490,13 @@
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>552</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>551</v>
       </c>
     </row>
@@ -3498,7 +3512,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E24" ca="1" si="0">RAND()</f>
-        <v>1.586421512759717E-2</v>
+        <v>0.36467182484362815</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>548</v>
@@ -3519,7 +3533,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16154305091715093</v>
+        <v>0.71529762153737253</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3534,7 +3548,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41988283888284794</v>
+        <v>0.34383552402989415</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3552,7 +3566,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68012914764895449</v>
+        <v>0.89517319230539394</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3570,7 +3584,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67300470308966376</v>
+        <v>0.84874595421846377</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>549</v>
@@ -3591,7 +3605,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69105991471782302</v>
+        <v>0.42097364020116002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3609,7 +3623,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25967178851766726</v>
+        <v>1.5107690338777902E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3627,7 +3641,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25007370636942916</v>
+        <v>0.5075055774805286</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3645,7 +3659,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74109300221311458</v>
+        <v>0.22855440057187537</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3663,7 +3677,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26895989593391323</v>
+        <v>0.80940336104149513</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3681,7 +3695,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57749513147242038</v>
+        <v>0.54789159424343314</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3696,7 +3710,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18793599738697808</v>
+        <v>0.58037349712990904</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3714,7 +3728,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73525825821166746</v>
+        <v>0.93128905283802488</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3732,7 +3746,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38519439095130414</v>
+        <v>0.72182593646273918</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3750,7 +3764,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29229022892132717</v>
+        <v>0.28022883168491186</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -3768,7 +3782,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2238350754643208</v>
+        <v>0.47743059780089248</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -3786,7 +3800,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76671766339854697</v>
+        <v>0.60591782228538105</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -3801,7 +3815,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60875811000765323</v>
+        <v>0.98879749503584824</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -3819,7 +3833,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62057876228351883</v>
+        <v>0.27801024597219059</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
@@ -3834,7 +3848,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50933305223676484</v>
+        <v>6.3782277827915235E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -3852,7 +3866,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55269760592322614</v>
+        <v>0.6865419963740369</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -3870,7 +3884,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65076250388629975</v>
+        <v>0.69665661321550931</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -3888,7 +3902,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10044381592311302</v>
+        <v>0.11243578587979708</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -3906,7 +3920,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F25"/>
+  <autoFilter ref="A1:F25" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3915,7 +3929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -3940,13 +3954,13 @@
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>552</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>553</v>
       </c>
     </row>
@@ -3962,7 +3976,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E25" ca="1" si="0">RAND()</f>
-        <v>0.76548815936536285</v>
+        <v>0.59243548684383118</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3980,7 +3994,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45122320627719459</v>
+        <v>0.9642713013132086</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3998,7 +4012,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7118508879944945E-2</v>
+        <v>0.34787812413972874</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4016,7 +4030,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84362880476807411</v>
+        <v>0.35805752324578477</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4031,7 +4045,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96782869459818011</v>
+        <v>0.33683971360224108</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>379</v>
@@ -4052,7 +4066,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28735020606301975</v>
+        <v>3.5988333782420168E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4070,7 +4084,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77785895451602116</v>
+        <v>0.32918287815442404</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4085,7 +4099,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21721696457654438</v>
+        <v>0.75712023040635612</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -4100,7 +4114,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26270987614418628</v>
+        <v>0.82002975748035778</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -4118,7 +4132,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56418287495227093</v>
+        <v>0.80199559500124251</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>550</v>
@@ -4136,7 +4150,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92587408817634853</v>
+        <v>0.20878282427167327</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -4154,7 +4168,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15614820192895784</v>
+        <v>0.95213249194479765</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -4172,7 +4186,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99054313824917339</v>
+        <v>0.51249370256978111</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -4187,7 +4201,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21301263071927956</v>
+        <v>0.2532876259291067</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -4202,7 +4216,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77434352123203853</v>
+        <v>1.8849130975208794E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -4217,7 +4231,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13317844012821056</v>
+        <v>0.9509751041528367</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -4235,7 +4249,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19838165664131491</v>
+        <v>0.5393599811607982</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -4250,7 +4264,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9940807257764197</v>
+        <v>4.9173149178199593E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -4265,7 +4279,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58403142868163394</v>
+        <v>0.99189150944497539</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -4283,7 +4297,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4303305190491185E-2</v>
+        <v>0.4670272941746243</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -4298,7 +4312,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96359664610985163</v>
+        <v>0.30632056082398229</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -4313,7 +4327,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75078828034287814</v>
+        <v>8.8994442013697661E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -4328,7 +4342,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56095709337067556</v>
+        <v>0.94429368817450776</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
@@ -4346,22 +4360,22 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58210731214645406</v>
+        <v>0.55208989107005391</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F25"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <autoFilter ref="A1:F25" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4372,7 +4386,7 @@
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4382,14 +4396,17 @@
       <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>552</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="32" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>4</v>
       </c>
@@ -4402,10 +4419,10 @@
       </c>
       <c r="E2" s="9">
         <f t="shared" ref="E2:E24" ca="1" si="0">RAND()</f>
-        <v>0.41466021454847302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.68395680630047173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -4418,10 +4435,10 @@
       </c>
       <c r="E3" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40483443941805797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.74510495379723118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -4434,10 +4451,10 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82406917465040619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.25959445244274404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -4450,10 +4467,10 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6228724641507718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.13256333368323003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -4468,10 +4485,10 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33313718705204309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.55429952023143914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -4486,10 +4503,10 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72101161229692656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.97425536425384462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -4504,10 +4521,10 @@
       </c>
       <c r="E8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15714149890841744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.27635184966766202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -4520,10 +4537,10 @@
       </c>
       <c r="E9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48502822422085978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.6928107025843433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -4538,10 +4555,10 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48496945077731224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
+        <v>0.49742658411405172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -4554,10 +4571,10 @@
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89050750523223543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.63375079438237625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -4570,10 +4587,10 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31702525744962906</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.85984698897306489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -4586,10 +4603,10 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4429055383994811</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.74637691411556983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -4604,10 +4621,10 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49989530461068765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>9.8227443695032668E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -4622,10 +4639,10 @@
       </c>
       <c r="E15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34470524865852226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.49742813853133261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -4640,7 +4657,7 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98600538288716422</v>
+        <v>0.60224655232310831</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -4656,7 +4673,7 @@
       </c>
       <c r="E17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28003178944814477</v>
+        <v>0.72281973880652861</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -4674,7 +4691,7 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2062173766895965</v>
+        <v>7.2937465515949484E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -4692,7 +4709,7 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81734269494176937</v>
+        <v>0.94675164420930114</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -4710,7 +4727,7 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81871602900645835</v>
+        <v>1.0154937972678857E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -4728,7 +4745,7 @@
       </c>
       <c r="E21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22819994018267364</v>
+        <v>0.7728542792685692</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -4746,7 +4763,7 @@
       </c>
       <c r="E22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30178405996577329</v>
+        <v>0.44333075089338614</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -4764,7 +4781,7 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99763317277328933</v>
+        <v>0.52332907120958994</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -4780,11 +4797,11 @@
       </c>
       <c r="E24" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2750998381392438E-2</v>
+        <v>0.68417396240450123</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E24">
+  <autoFilter ref="A1:E24" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
       <sortCondition descending="1" ref="A1:A24"/>
     </sortState>
@@ -4796,11 +4813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4811,7 +4828,7 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4821,14 +4838,17 @@
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>552</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="31" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>2</v>
       </c>
@@ -4843,10 +4863,10 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RAND()</f>
-        <v>0.55565704959450934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.76706013725886468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -4858,10 +4878,10 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18736918971526551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.38433074630930064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -4873,10 +4893,10 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81671714257667749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.4084369819642677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -4888,10 +4908,10 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14008135709216163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>4.5134606207548611E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -4903,10 +4923,10 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43743944511316457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.50512529708418952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -4918,10 +4938,10 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10443859297307712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.35083892220804425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -4936,10 +4956,10 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89709967751210318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.83910376446526302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -4951,10 +4971,10 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18864454209329862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.98378541854584822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -4966,10 +4986,10 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93675555888362949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.97294262161746725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -4981,10 +5001,10 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.574303324655868E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3.1156761238786412E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -4996,10 +5016,10 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55611682050854638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.27925105720352295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -5011,10 +5031,10 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61545333287073689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.62673814328741706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -5026,10 +5046,10 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42381278821375445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>4.9292460702668017E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -5041,10 +5061,10 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22100652832348688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.97149426377833914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -5059,7 +5079,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2648596705141855E-2</v>
+        <v>4.2857630996574914E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -5074,7 +5094,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68115123522235543</v>
+        <v>0.83727060812685106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -5089,7 +5109,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47447571368007446</v>
+        <v>0.90295133943195349</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -5104,7 +5124,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94945838601095089</v>
+        <v>0.2576956946888298</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -5122,7 +5142,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28420671405656561</v>
+        <v>0.87175488551969527</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -5137,7 +5157,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29936249549204064</v>
+        <v>0.59559786744290188</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -5152,7 +5172,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80816498326072495</v>
+        <v>0.33832405399828802</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -5167,7 +5187,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3249962936739568E-2</v>
+        <v>4.6242710306421131E-4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -5185,7 +5205,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28209483260122425</v>
+        <v>0.77441898191013769</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -5200,7 +5220,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51283870717334901</v>
+        <v>0.23679336387909655</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -5215,7 +5235,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11010974810388385</v>
+        <v>0.50121473481537737</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -5230,7 +5250,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3307229552744958</v>
+        <v>0.54774519803941835</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -5245,7 +5265,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45220248392298446</v>
+        <v>0.83873773353377201</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -5260,7 +5280,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28307330291263821</v>
+        <v>5.1284905755804355E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -5275,7 +5295,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88198965127194939</v>
+        <v>0.32309432743127109</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -5290,7 +5310,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90381794602106391</v>
+        <v>0.32547493085426449</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -5305,7 +5325,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49804514487882423</v>
+        <v>0.30067681355489029</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -5320,7 +5340,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91272377823173734</v>
+        <v>0.30980667211909507</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -5335,7 +5355,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E56" ca="1" si="1">RAND()</f>
-        <v>0.82529649467603738</v>
+        <v>2.1363077299815569E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -5350,7 +5370,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13635677279681213</v>
+        <v>0.82819164969956571</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -5365,7 +5385,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68381022696260463</v>
+        <v>0.21712721341581387</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -5380,7 +5400,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20882018962661086</v>
+        <v>0.45033993567518193</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -5395,7 +5415,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15957322208953828</v>
+        <v>0.34195355019639972</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -5410,7 +5430,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63969541495686921</v>
+        <v>0.6854381262936704</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -5425,7 +5445,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66090054730367176</v>
+        <v>3.8809578199507033E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -5440,7 +5460,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48879650037887024</v>
+        <v>0.66717951165337286</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -5455,7 +5475,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9838513004052492E-2</v>
+        <v>0.81329862298286371</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -5470,7 +5490,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2832170558445357E-2</v>
+        <v>0.6722463009474644</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -5485,7 +5505,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5133687025774445E-2</v>
+        <v>0.16318748346737311</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -5500,7 +5520,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0650932867525515E-2</v>
+        <v>0.18764885762375039</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -5515,7 +5535,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48922258260999307</v>
+        <v>0.94547623083847065</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -5530,7 +5550,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98327339765660537</v>
+        <v>0.70366472392440371</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -5545,7 +5565,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22443748937426433</v>
+        <v>0.9843159919286516</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -5560,7 +5580,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35884711433054206</v>
+        <v>2.985248718471345E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -5575,7 +5595,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46114516150323115</v>
+        <v>0.99751886312606319</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -5590,7 +5610,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66401885860480603</v>
+        <v>0.79238077580205757</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -5605,7 +5625,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45310243143073248</v>
+        <v>0.32974661389412552</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -5620,7 +5640,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20901538893102301</v>
+        <v>0.91528246265686708</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -5635,7 +5655,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43754591140621035</v>
+        <v>0.75166956672028817</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -5650,7 +5670,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6472197492568452E-2</v>
+        <v>0.90479987416305407</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -5665,11 +5685,11 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70714715976080544</v>
+        <v>0.70025160774644857</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E56">
+  <autoFilter ref="A1:E56" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E56">
       <sortCondition descending="1" ref="A1:A56"/>
     </sortState>
@@ -5681,11 +5701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5694,7 +5714,7 @@
     <col min="4" max="4" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5704,14 +5724,17 @@
       <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>552</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="32" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -5723,10 +5746,10 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E28" ca="1" si="0">RAND()</f>
-        <v>0.51856151653444016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.85237302643080415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -5738,10 +5761,10 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41209743872967675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.57626196943771091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -5753,10 +5776,10 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13369294722319114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.60828838438412192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -5771,10 +5794,10 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24329450254200968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.4637273365737371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>0</v>
       </c>
@@ -5789,10 +5812,10 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0818467590677439E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.98764311576355623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -5804,10 +5827,10 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72224020040573311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.9798043023351316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>0</v>
       </c>
@@ -5822,10 +5845,10 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66255059520501502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.53704310276156908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>0</v>
       </c>
@@ -5840,10 +5863,10 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35873230163793957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.5448997582489703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>0</v>
       </c>
@@ -5858,10 +5881,10 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1807787689084912E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.24447205825104223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>0</v>
       </c>
@@ -5876,10 +5899,10 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86220537260528229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.45956103922498237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>0</v>
       </c>
@@ -5894,10 +5917,10 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8577765796127057E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.93922282845412786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -5912,10 +5935,10 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78770600518751999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.21850910045724736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>0</v>
       </c>
@@ -5927,10 +5950,10 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55819649109143332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.33624350211516674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>0</v>
       </c>
@@ -5942,10 +5965,10 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2991191340593754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.87626967816133516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -5957,7 +5980,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51516739341945783</v>
+        <v>1.8367911124224645E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -5972,7 +5995,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78018914179720389</v>
+        <v>0.2350552765813938</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -5987,7 +6010,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64770537146348239</v>
+        <v>0.80418355893234961</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -6005,7 +6028,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3779445861804129E-2</v>
+        <v>0.13942854608249045</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -6020,7 +6043,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54705626420253173</v>
+        <v>0.89812643851027796</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -6038,7 +6061,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92895557395949635</v>
+        <v>0.93575068724916288</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -6056,7 +6079,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39788313970444189</v>
+        <v>0.7379495249123591</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -6074,7 +6097,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29518957979009508</v>
+        <v>5.7693772968217871E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -6092,7 +6115,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57734275410168312</v>
+        <v>0.80377566300653447</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -6110,7 +6133,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81800147592130246</v>
+        <v>0.70960104445397898</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -6128,7 +6151,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24026777598056703</v>
+        <v>0.90787629804078784</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -6146,7 +6169,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91045066151114873</v>
+        <v>0.87867617235815498</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -6161,7 +6184,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4418823797630449</v>
+        <v>0.35103153476894977</v>
       </c>
     </row>
   </sheetData>
@@ -6172,11 +6195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6188,7 +6211,7 @@
     <col min="5" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6198,14 +6221,17 @@
       <c r="C1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="19" t="s">
         <v>552</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="30" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -6217,10 +6243,10 @@
       </c>
       <c r="E2" s="19">
         <f ca="1">RAND()</f>
-        <v>0.20997456378810408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.2476065308922093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="19">
         <v>0</v>
       </c>
@@ -6232,10 +6258,10 @@
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E24" ca="1" si="0">RAND()</f>
-        <v>0.20734577458108638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.48409405732611166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>1</v>
       </c>
@@ -6247,10 +6273,10 @@
       </c>
       <c r="E4" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41897381846395265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.46931013594963267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>0</v>
       </c>
@@ -6262,10 +6288,10 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57599447438728801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.9533760411789638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>1</v>
       </c>
@@ -6277,10 +6303,10 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82318084604541064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3.3410276387260462E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>0</v>
       </c>
@@ -6295,10 +6321,10 @@
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14152468213252356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.44755163232316419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>0</v>
       </c>
@@ -6313,10 +6339,10 @@
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68520771912731793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.54056667016013471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -6328,10 +6354,10 @@
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91968799315336058</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.37792934448094406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -6346,10 +6372,10 @@
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51671704182877209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.47607759285256768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>0</v>
       </c>
@@ -6364,10 +6390,10 @@
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64737853854737681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.40378071996963527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>0</v>
       </c>
@@ -6379,10 +6405,10 @@
       </c>
       <c r="E12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10066316485968518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.91324519289378259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>1</v>
       </c>
@@ -6394,10 +6420,10 @@
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91472125610597688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.13405386262100583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>0</v>
       </c>
@@ -6412,10 +6438,10 @@
       </c>
       <c r="E14" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6658794016795061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.12524301291245477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>1</v>
       </c>
@@ -6430,10 +6456,10 @@
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34547692632465787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1.3651827033035469E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>1</v>
       </c>
@@ -6445,7 +6471,7 @@
       </c>
       <c r="E16" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59027766325775566</v>
+        <v>0.83183125000622904</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -6460,7 +6486,7 @@
       </c>
       <c r="E17" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44672378217640196</v>
+        <v>0.98171132947780304</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -6475,7 +6501,7 @@
       </c>
       <c r="E18" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1224401136041977E-2</v>
+        <v>0.38781535020965774</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -6493,7 +6519,7 @@
       </c>
       <c r="E19" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55620906179336793</v>
+        <v>0.40299566565790257</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -6508,7 +6534,7 @@
       </c>
       <c r="E20" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23804372729858103</v>
+        <v>0.78411096634209065</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -6523,7 +6549,7 @@
       </c>
       <c r="E21" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3118998861324942</v>
+        <v>8.8276183652391094E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -6538,7 +6564,7 @@
       </c>
       <c r="E22" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75890234852171945</v>
+        <v>0.47371843951712089</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -6556,14 +6582,14 @@
       </c>
       <c r="E23" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76071124565937742</v>
+        <v>0.14480879508875644</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>1</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="19" t="s">
         <v>502</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -6571,11 +6597,11 @@
       </c>
       <c r="E24" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21301661098672675</v>
+        <v>0.27303414080586452</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E24"/>
+  <autoFilter ref="A1:E24" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6583,11 +6609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6600,7 +6626,7 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6610,14 +6636,17 @@
       <c r="C1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>552</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="30" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -6629,10 +6658,10 @@
       </c>
       <c r="E2" s="9">
         <f ca="1">RAND()</f>
-        <v>0.87723121108400792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.96094621555051796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -6644,10 +6673,10 @@
       </c>
       <c r="E3" s="9">
         <f ca="1">RAND()</f>
-        <v>0.24583749253774345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>6.8794963315660929E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>0</v>
       </c>
@@ -6659,10 +6688,10 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E20" ca="1" si="0">RAND()</f>
-        <v>0.24635187498504041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>6.8656626862574788E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -6674,10 +6703,10 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30681346502522167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.93480312947579047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -6689,10 +6718,10 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16993021674956466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.68957014385426951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -6707,10 +6736,10 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78808761531538973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.67734922189999647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>0</v>
       </c>
@@ -6725,10 +6754,10 @@
       </c>
       <c r="E8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33186561663535641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.93652885175864475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>0</v>
       </c>
@@ -6743,10 +6772,10 @@
       </c>
       <c r="E9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58379938876467818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.42170424812017959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>0</v>
       </c>
@@ -6761,10 +6790,10 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79521159974938804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+        <v>0.70279457293082581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -6776,10 +6805,10 @@
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35974470778889622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.28084958475823263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>0</v>
       </c>
@@ -6791,10 +6820,10 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61041489036227481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.31768218392597225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -6806,10 +6835,10 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95543798676770875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>4.0170868290367312E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -6821,10 +6850,10 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77284541825638431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.40673557469324217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -6836,10 +6865,10 @@
       </c>
       <c r="E15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47875985685802214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.89457936727934428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>0</v>
       </c>
@@ -6854,7 +6883,7 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88696586310860304</v>
+        <v>0.69539074160650816</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -6872,7 +6901,7 @@
       </c>
       <c r="E17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78303500363523626</v>
+        <v>0.8014767425768855</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -6890,7 +6919,7 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16766254382288637</v>
+        <v>0.35797339109897575</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -6905,7 +6934,7 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91992951574374704</v>
+        <v>0.28096178623815771</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -6923,7 +6952,7 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9915321236543676</v>
+        <v>0.21138525670248853</v>
       </c>
     </row>
   </sheetData>

--- a/WORD/all.xlsx
+++ b/WORD/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\N2_2025_12\WORD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A78DC-468C-4075-BDAF-9B975CA678AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D77C0-B493-4B64-9B34-55683B96A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9375" yWindow="5550" windowWidth="28365" windowHeight="9255" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.13" sheetId="1" r:id="rId1"/>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E18" ca="1" si="0">RAND()</f>
-        <v>0.46394298838073234</v>
+        <v>0.39644205127532528</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15571808591652225</v>
+        <v>0.72277136177801826</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69865717758072277</v>
+        <v>0.99093125052616904</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85072625030256444</v>
+        <v>9.1186715151643449E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78452904281745017</v>
+        <v>0.269708699447615</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35925338410401564</v>
+        <v>0.45426528856428172</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18067680040325107</v>
+        <v>0.60532099764280234</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>377</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43827554237165789</v>
+        <v>0.88915391850371206</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>545</v>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20545361991234734</v>
+        <v>0.87260914399520206</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84062844799931868</v>
+        <v>0.81809761590454544</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1542034092452893</v>
+        <v>0.85681026618688227</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93870857601077784</v>
+        <v>0.31721269783449468</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7934174287140316E-2</v>
+        <v>0.25660953177118284</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69552661781543024</v>
+        <v>0.87671177092502617</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87630416693557289</v>
+        <v>6.7962928449713078E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8075781072750885</v>
+        <v>0.38674931244516875</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43867496431828779</v>
+        <v>0.64053990400831462</v>
       </c>
     </row>
   </sheetData>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E14" ca="1" si="0">RAND()</f>
-        <v>0.12686965452759624</v>
+        <v>0.40803802980087556</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.235621001867627E-2</v>
+        <v>0.3226658869545358</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12433758750061885</v>
+        <v>0.4333301042384804</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22562541000498504</v>
+        <v>0.615210053780055</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97978169404130422</v>
+        <v>0.89928371795239381</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9984256502151605</v>
+        <v>0.21522081603718513</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72211593644211658</v>
+        <v>6.7145172924733543E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35779716508634551</v>
+        <v>0.86663671960014532</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48442521396468718</v>
+        <v>0.60784352476688774</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33301392836566746</v>
+        <v>0.36718480625208338</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74584150127680482</v>
+        <v>0.19373873758063698</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36401742854656272</v>
+        <v>0.73364638834355922</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33758190248093811</v>
+        <v>0.16796519357383577</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E24" ca="1" si="0">RAND()</f>
-        <v>0.36467182484362815</v>
+        <v>0.12665548932783322</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>548</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71529762153737253</v>
+        <v>2.7750893713544889E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34383552402989415</v>
+        <v>0.5078372973089037</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89517319230539394</v>
+        <v>0.6374656877953323</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84874595421846377</v>
+        <v>0.82337209672528566</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>549</v>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42097364020116002</v>
+        <v>0.33486671727557826</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5107690338777902E-2</v>
+        <v>4.315109271555484E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5075055774805286</v>
+        <v>0.27243765394075392</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22855440057187537</v>
+        <v>0.97817156815462503</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80940336104149513</v>
+        <v>0.73236721475584399</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54789159424343314</v>
+        <v>0.66310244447274391</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58037349712990904</v>
+        <v>0.70889030691025645</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93128905283802488</v>
+        <v>0.23856667650334373</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72182593646273918</v>
+        <v>0.14537860871368802</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28022883168491186</v>
+        <v>0.66984771726379089</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47743059780089248</v>
+        <v>8.3832236761873791E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60591782228538105</v>
+        <v>9.3967198991928624E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98879749503584824</v>
+        <v>0.14453156483973195</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27801024597219059</v>
+        <v>0.86908182679382495</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3782277827915235E-2</v>
+        <v>3.6019909918030057E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6865419963740369</v>
+        <v>0.18983834399948574</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69665661321550931</v>
+        <v>0.2264597291219631</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11243578587979708</v>
+        <v>0.82152358526253</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E25" ca="1" si="0">RAND()</f>
-        <v>0.59243548684383118</v>
+        <v>0.65252021212122946</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9642713013132086</v>
+        <v>0.67662202735387289</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34787812413972874</v>
+        <v>0.56727829017914433</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35805752324578477</v>
+        <v>0.54482087060846218</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33683971360224108</v>
+        <v>0.81959674032949403</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>379</v>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5988333782420168E-2</v>
+        <v>0.75359376480439522</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32918287815442404</v>
+        <v>0.53586656727491122</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75712023040635612</v>
+        <v>0.688569328684147</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82002975748035778</v>
+        <v>0.30587857987891598</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80199559500124251</v>
+        <v>0.9442802256958911</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>550</v>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20878282427167327</v>
+        <v>0.6655328345266377</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95213249194479765</v>
+        <v>0.60866630968214819</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51249370256978111</v>
+        <v>4.996140403130811E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2532876259291067</v>
+        <v>0.20655137872069385</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8849130975208794E-2</v>
+        <v>0.49302443128339191</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9509751041528367</v>
+        <v>0.43683788008997604</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5393599811607982</v>
+        <v>0.22349825264137746</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9173149178199593E-2</v>
+        <v>0.25008202646179378</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99189150944497539</v>
+        <v>0.2245166566065333</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4670272941746243</v>
+        <v>0.68435794712519471</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30632056082398229</v>
+        <v>0.7878840815705338</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8994442013697661E-2</v>
+        <v>0.3021002783808906</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94429368817450776</v>
+        <v>0.43649777011397339</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55208989107005391</v>
+        <v>0.28131424148604889</v>
       </c>
     </row>
   </sheetData>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="E2" s="9">
         <f t="shared" ref="E2:E24" ca="1" si="0">RAND()</f>
-        <v>0.68395680630047173</v>
+        <v>0.56921534603686408</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="E3" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74510495379723118</v>
+        <v>0.79752513501155486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25959445244274404</v>
+        <v>0.35783817913957794</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13256333368323003</v>
+        <v>0.69387381779845436</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55429952023143914</v>
+        <v>0.23422816665115764</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97425536425384462</v>
+        <v>0.91891114305417432</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="E8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27635184966766202</v>
+        <v>0.83715272522293049</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="E9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6928107025843433</v>
+        <v>0.70915764886593768</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49742658411405172</v>
+        <v>0.72413992974467944</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63375079438237625</v>
+        <v>7.0178595518838871E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85984698897306489</v>
+        <v>0.48160931255848127</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74637691411556983</v>
+        <v>0.53617265393639324</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8227443695032668E-2</v>
+        <v>0.23176960353884468</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="E15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49742813853133261</v>
+        <v>0.32894332093486278</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60224655232310831</v>
+        <v>0.96008064130832049</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="E17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72281973880652861</v>
+        <v>0.83999380309302107</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2937465515949484E-2</v>
+        <v>0.64063635906067606</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94675164420930114</v>
+        <v>0.85156276814802123</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0154937972678857E-2</v>
+        <v>0.10931007713310514</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="E21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7728542792685692</v>
+        <v>0.37353610253463321</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="E22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44333075089338614</v>
+        <v>0.17395206401684737</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52332907120958994</v>
+        <v>0.46839334784174114</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="E24" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68417396240450123</v>
+        <v>0.98228324684899337</v>
       </c>
     </row>
   </sheetData>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RAND()</f>
-        <v>0.76706013725886468</v>
+        <v>0.66901381870305809</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38433074630930064</v>
+        <v>0.53290663721997711</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4084369819642677</v>
+        <v>0.40307061536336364</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5134606207548611E-3</v>
+        <v>0.67584519864467607</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50512529708418952</v>
+        <v>0.99731744673096501</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35083892220804425</v>
+        <v>0.98069488564264495</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83910376446526302</v>
+        <v>0.5639108933967103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98378541854584822</v>
+        <v>0.67339691737999807</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97294262161746725</v>
+        <v>0.61971320465454427</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1156761238786412E-2</v>
+        <v>1.281763640497191E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27925105720352295</v>
+        <v>0.67852732235140145</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62673814328741706</v>
+        <v>0.22691099780469925</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9292460702668017E-2</v>
+        <v>0.35128001866565295</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97149426377833914</v>
+        <v>0.48712464787914278</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2857630996574914E-2</v>
+        <v>0.6264711003492045</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83727060812685106</v>
+        <v>0.34423164582362897</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90295133943195349</v>
+        <v>0.40841081397466705</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2576956946888298</v>
+        <v>0.60154762834024234</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87175488551969527</v>
+        <v>0.90230060144125912</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59559786744290188</v>
+        <v>0.68258082904312278</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33832405399828802</v>
+        <v>0.39042626844308226</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6242710306421131E-4</v>
+        <v>0.7718467638707196</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77441898191013769</v>
+        <v>0.70622848666955873</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23679336387909655</v>
+        <v>0.64644877221141361</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50121473481537737</v>
+        <v>0.22050103368195884</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54774519803941835</v>
+        <v>3.509916471296326E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83873773353377201</v>
+        <v>0.97656539805344134</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1284905755804355E-2</v>
+        <v>0.95551173673618739</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32309432743127109</v>
+        <v>0.3505179238261783</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32547493085426449</v>
+        <v>0.18301639262851088</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30067681355489029</v>
+        <v>0.47310598569847284</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30980667211909507</v>
+        <v>0.11985519745094186</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E56" ca="1" si="1">RAND()</f>
-        <v>2.1363077299815569E-2</v>
+        <v>0.93933689426465528</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82819164969956571</v>
+        <v>5.0924159882415276E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21712721341581387</v>
+        <v>0.37843563445479678</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45033993567518193</v>
+        <v>0.91562006838196175</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34195355019639972</v>
+        <v>0.11018219501840165</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6854381262936704</v>
+        <v>0.9329431354288612</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8809578199507033E-2</v>
+        <v>0.27506108424751086</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66717951165337286</v>
+        <v>0.94569741534296736</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81329862298286371</v>
+        <v>0.47488885267600944</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6722463009474644</v>
+        <v>0.23022591886134736</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16318748346737311</v>
+        <v>2.6971349388113963E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18764885762375039</v>
+        <v>0.69913853089619038</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94547623083847065</v>
+        <v>0.75393732380060174</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70366472392440371</v>
+        <v>0.58099610530460222</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9843159919286516</v>
+        <v>0.51234526042673489</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>2.985248718471345E-2</v>
+        <v>0.29715038499126312</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99751886312606319</v>
+        <v>0.21658433635391339</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79238077580205757</v>
+        <v>6.3975544913314919E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32974661389412552</v>
+        <v>0.59289122818283579</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91528246265686708</v>
+        <v>0.99723688406241462</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75166956672028817</v>
+        <v>0.82979634630788768</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90479987416305407</v>
+        <v>0.96730411141928518</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70025160774644857</v>
+        <v>0.71868203866469926</v>
       </c>
     </row>
   </sheetData>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E28" ca="1" si="0">RAND()</f>
-        <v>0.85237302643080415</v>
+        <v>0.92425224216084523</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57626196943771091</v>
+        <v>0.77195308033798926</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60828838438412192</v>
+        <v>0.39359690875753173</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4637273365737371</v>
+        <v>0.87844347233923192</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98764311576355623</v>
+        <v>0.74723620672396285</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9798043023351316</v>
+        <v>0.52657723156861269</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53704310276156908</v>
+        <v>0.63271414560060169</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5448997582489703</v>
+        <v>0.54008879676878807</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24447205825104223</v>
+        <v>0.81754504367693281</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45956103922498237</v>
+        <v>0.35095056082799303</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93922282845412786</v>
+        <v>0.96320600807451773</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21850910045724736</v>
+        <v>3.4727131769981101E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33624350211516674</v>
+        <v>0.54524701802368025</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87626967816133516</v>
+        <v>0.21881806910436186</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8367911124224645E-2</v>
+        <v>7.8666556913995267E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2350552765813938</v>
+        <v>9.9063190168050541E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80418355893234961</v>
+        <v>0.50537300718401068</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13942854608249045</v>
+        <v>2.9214250604160052E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89812643851027796</v>
+        <v>0.45478513894171435</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93575068724916288</v>
+        <v>4.8943744846575155E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7379495249123591</v>
+        <v>0.90803376464043262</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7693772968217871E-2</v>
+        <v>0.27202556965896874</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80377566300653447</v>
+        <v>0.64882493692953214</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70960104445397898</v>
+        <v>0.81824049359705164</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90787629804078784</v>
+        <v>0.15823027242107202</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87867617235815498</v>
+        <v>2.6479181837717469E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35103153476894977</v>
+        <v>0.40951890751539133</v>
       </c>
     </row>
   </sheetData>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="E2" s="19">
         <f ca="1">RAND()</f>
-        <v>0.2476065308922093</v>
+        <v>8.668274456803271E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E24" ca="1" si="0">RAND()</f>
-        <v>0.48409405732611166</v>
+        <v>0.14949642422262011</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="E4" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46931013594963267</v>
+        <v>7.8000603855848172E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9533760411789638</v>
+        <v>0.20103389444157527</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3410276387260462E-2</v>
+        <v>0.7845380414505283</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44755163232316419</v>
+        <v>0.81312429374869855</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54056667016013471</v>
+        <v>0.91285861375434685</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37792934448094406</v>
+        <v>0.32971661402541852</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47607759285256768</v>
+        <v>0.38071147921960136</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40378071996963527</v>
+        <v>0.76969411037562074</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="E12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91324519289378259</v>
+        <v>0.85388860639279063</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13405386262100583</v>
+        <v>0.11244344211573143</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="E14" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12524301291245477</v>
+        <v>0.61792462226817457</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3651827033035469E-3</v>
+        <v>0.76686838361282317</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="E16" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83183125000622904</v>
+        <v>2.6663464355392019E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="E17" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98171132947780304</v>
+        <v>0.45420161457375197</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="E18" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38781535020965774</v>
+        <v>4.1157169097658652E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="E19" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40299566565790257</v>
+        <v>0.83655576344856319</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="E20" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78411096634209065</v>
+        <v>0.92900152357313615</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="E21" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8276183652391094E-2</v>
+        <v>0.92693665293877259</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="E22" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47371843951712089</v>
+        <v>0.10690580157998442</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="E23" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14480879508875644</v>
+        <v>0.26167092735306563</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="E24" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27303414080586452</v>
+        <v>4.3854247979873584E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6613,7 +6613,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="E2" s="9">
         <f ca="1">RAND()</f>
-        <v>0.96094621555051796</v>
+        <v>0.85189760930620362</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="E3" s="9">
         <f ca="1">RAND()</f>
-        <v>6.8794963315660929E-2</v>
+        <v>4.0850682081250311E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E20" ca="1" si="0">RAND()</f>
-        <v>6.8656626862574788E-2</v>
+        <v>0.44790989478392595</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93480312947579047</v>
+        <v>0.75126416196341683</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68957014385426951</v>
+        <v>0.52837041738379686</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67734922189999647</v>
+        <v>0.16533311701944198</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="E8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93652885175864475</v>
+        <v>0.69897027448398996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="E9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42170424812017959</v>
+        <v>0.87539362972776047</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70279457293082581</v>
+        <v>2.0416569140482399E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28084958475823263</v>
+        <v>7.5306413870898425E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31768218392597225</v>
+        <v>0.77374420866053051</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0170868290367312E-2</v>
+        <v>0.96131305137166789</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40673557469324217</v>
+        <v>0.73476379858280649</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="E15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89457936727934428</v>
+        <v>0.58607073099006635</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69539074160650816</v>
+        <v>0.50983799795056128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="E17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8014767425768855</v>
+        <v>0.58206928799975566</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35797339109897575</v>
+        <v>0.67652142423217343</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28096178623815771</v>
+        <v>9.6958934368195582E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21138525670248853</v>
+        <v>0.25182697229685524</v>
       </c>
     </row>
   </sheetData>
